--- a/data/trans_dic/P55_9-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55_9-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de una lavadora</t>
+          <t>Población que no puede permitirse disponer de una lavadora (tasa de respuesta: 99,44%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>94,48%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>97,59%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>96,22%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,99; 99,53</t>
+          <t>96,6; 99,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,47; 95,89</t>
+          <t>93,58; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>94,27; 98,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>93,9; 97,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,12; 98,71</t>
+          <t>93,88; 98,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,22; 96,61</t>
+          <t>79,71; 99,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>96,01; 98,65</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>87,56; 98,98</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>98,41%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>98,06%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>98,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>96,48; 99,24</t>
+          <t>96,23; 99,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,04; 98,95</t>
+          <t>96,03; 99,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,58; 98,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>95,08; 98,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,01; 98,77</t>
+          <t>96,64; 98,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>96,32; 98,44</t>
+          <t>96,22; 99,42</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>97,07; 98,83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>97,05; 99,33</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -766,27 +942,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>99,74%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>99,8%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>98,12%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>99,58; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,11; 99,63</t>
+          <t>87,97; 99,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,67; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>97,39; 99,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>99,36; 100,0</t>
+          <t>98,82; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>97,72; 99,57</t>
+          <t>98,49; 100,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>99,3; 100,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>93,49; 99,61</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>97,79%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>98,08%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,88; 99,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,4; 97,91</t>
+          <t>96,07; 99,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,42; 98,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,18; 98,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,0; 98,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,17; 97,79</t>
+          <t>95,67; 99,09</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96,52; 99,0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>98,84%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>98,2%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>97,87%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>98,51%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>97,93%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>97,78; 99,38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>95,71; 98,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>97,32; 98,8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>95,15; 98,81</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>97,86; 98,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>96,43; 98,67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de una lavadora (tasa de respuesta: 99,44%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>655.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>702470</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>441631</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>862203</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>606462</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1564674</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1048093</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>687691; 709170</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>418644; 447386</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>836753; 876879</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>511695; 635608</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1539285; 1581634</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>953758; 1078164</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>571.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>664.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1235.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>695.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1579195</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1043049</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1450406</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1059249</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3029602</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2102299</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1548524; 1596142</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1015730; 1054051</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1430447; 1464122</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1035718; 1070144</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2998986; 3053343</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2071211; 2119714</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>455.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>574.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1029.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>646.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1071338</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>800860</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1138635</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>888962</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2209973</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1689822</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>730900; 826939</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1129599; 1143062</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>877823; 891261</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2198829; 2214400</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1610047; 1715342</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>633.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1062714</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>936396</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1999111</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1038102; 1074793</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>916129; 948891</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1967173; 2017827</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1309.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1019.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1610.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1243.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2919.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2262.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3353003</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3348253</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3451246</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3491070</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6804249</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6839323</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3317005; 3371289</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3269978; 3381440</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3420278; 3472375</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3394172; 3524673</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6759042; 6831615</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6734666; 6890580</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
